--- a/data/trans_orig/P36B07_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B07_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F16CA4-D595-4649-AB47-A646DB821846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B867E4B3-DB71-4F4E-8090-82F35EBDE248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D374367-FE59-428C-B540-5119C230E494}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B1BB431-280C-4240-8237-96EB95C0A82B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población según el número de  bebidas carbonatadas y/o azucaradas que consume al día en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>19,16%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>80,84%</t>
   </si>
   <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>83,4%</t>
   </si>
   <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>27,55%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>21,42%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>24,37%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>78,58%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>75,63%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>31,77%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>68,23%</t>
   </si>
   <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
   </si>
   <si>
     <t>71,89%</t>
   </si>
   <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>70,08%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>24,87%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
   </si>
   <si>
     <t>75,13%</t>
   </si>
   <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,109 @@
     <t>29,62%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>70,38%</t>
   </si>
   <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>26,8%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>73,2%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4785072-EFD6-441F-AA50-BF0CC787FE04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A71C9DB-9799-4810-9703-73D44D835127}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1751,10 +1757,10 @@
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>2413102</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4244</v>
@@ -1784,13 +1790,13 @@
         <v>2929767</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6715</v>
@@ -1799,13 +1805,13 @@
         <v>5342869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
